--- a/New Language/New Microsoft Excel Worksheet.xlsx
+++ b/New Language/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\omer\myGitHub\Front-End-Compiler-Project\New Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E9A3FA5-2C90-43AE-9189-F436A9CBEB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CD76FE-1159-4CAE-B507-F4B605415401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
   <si>
     <t>abstract</t>
   </si>
@@ -260,12 +260,33 @@
       <t>*</t>
     </r>
   </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>forEach</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>ENG</t>
+  </si>
+  <si>
+    <t>Urdu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,16 +320,40 @@
       <name val="Cascadia Mono"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -316,11 +361,75 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -334,8 +443,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -614,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,208 +754,511 @@
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.85546875" customWidth="1"/>
+    <col min="17" max="17" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="10"/>
+      <c r="I2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="L2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="10"/>
+      <c r="L3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="F4" s="10"/>
+      <c r="G4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="L4" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H5" s="10"/>
+      <c r="I5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="L5" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="10"/>
+      <c r="L6" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="10"/>
+      <c r="L7" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="10"/>
+      <c r="L11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P11" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="10"/>
+      <c r="L12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="10"/>
+      <c r="L14" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="M14" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="N14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="12"/>
+      <c r="L15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O18" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="C32" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E32" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    </row>
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B36" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C36" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="3" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D37" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="3" t="s">
+    </row>
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D39" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/New Language/New Microsoft Excel Worksheet.xlsx
+++ b/New Language/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\omer\myGitHub\Front-End-Compiler-Project\New Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56CD76FE-1159-4CAE-B507-F4B605415401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1463D7B-4C2C-4C26-9059-070079CFE9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="66">
   <si>
     <t>abstract</t>
   </si>
@@ -280,6 +280,9 @@
   </si>
   <si>
     <t>Urdu</t>
+  </si>
+  <si>
+    <t>Three ps</t>
   </si>
 </sst>
 </file>
@@ -429,7 +432,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -447,6 +450,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -459,6 +463,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -743,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,39 +772,41 @@
     <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" customWidth="1"/>
+    <col min="14" max="14" width="12.140625" customWidth="1"/>
     <col min="16" max="16" width="12.85546875" customWidth="1"/>
     <col min="17" max="17" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="9" t="s">
         <v>64</v>
       </c>
       <c r="L1" s="5" t="s">
@@ -800,26 +817,26 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="11"/>
+      <c r="C2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="11"/>
+      <c r="I2" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="10"/>
+      <c r="J2" s="11"/>
       <c r="L2" s="3" t="s">
         <v>29</v>
       </c>
@@ -828,189 +845,189 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="11"/>
+      <c r="E3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9" t="s">
+      <c r="F3" s="11"/>
+      <c r="G3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="10"/>
+      <c r="J3" s="11"/>
       <c r="L3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="11"/>
+      <c r="G4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="10"/>
-      <c r="I4" s="9" t="s">
+      <c r="H4" s="11"/>
+      <c r="I4" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="10"/>
+      <c r="J4" s="11"/>
       <c r="L4" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="9" t="s">
+      <c r="H5" s="11"/>
+      <c r="I5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="10"/>
+      <c r="J5" s="11"/>
       <c r="L5" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="9" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="9" t="s">
+      <c r="H6" s="11"/>
+      <c r="I6" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="10"/>
+      <c r="J6" s="11"/>
       <c r="L6" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="11"/>
+      <c r="C7" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="11"/>
       <c r="L7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="11"/>
       <c r="L11" s="6" t="s">
         <v>10</v>
       </c>
@@ -1028,18 +1045,18 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="11"/>
       <c r="L12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1057,32 +1074,32 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="11"/>
       <c r="L14" s="6" t="s">
         <v>59</v>
       </c>
@@ -1099,19 +1116,19 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="13"/>
       <c r="L15" s="3" t="s">
         <v>59</v>
       </c>
@@ -1128,7 +1145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L17" s="6" t="s">
         <v>13</v>
       </c>
@@ -1142,7 +1159,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L18" s="3" t="s">
         <v>13</v>
       </c>
@@ -1156,7 +1173,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L20" s="6" t="s">
         <v>31</v>
       </c>
@@ -1166,8 +1183,10 @@
       <c r="N20" s="6" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="L21" s="3" t="s">
         <v>31</v>
       </c>
@@ -1178,23 +1197,55 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L24" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="N24" s="20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="L25" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25" s="17" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L26" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+    </row>
+    <row r="27" spans="1:16" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="L27" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1202,7 +1253,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>51</v>
       </c>
@@ -1210,7 +1261,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>53</v>
       </c>

--- a/New Language/New Microsoft Excel Worksheet.xlsx
+++ b/New Language/New Microsoft Excel Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\omer\myGitHub\Front-End-Compiler-Project\New Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1463D7B-4C2C-4C26-9059-070079CFE9A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60201E3F-A471-4E6C-85F6-3DE91847C100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -758,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
